--- a/biology/Botanique/Paul_Antoine_Sagot/Paul_Antoine_Sagot.xlsx
+++ b/biology/Botanique/Paul_Antoine_Sagot/Paul_Antoine_Sagot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Antoine Sagot, né à Paris le 14 juin 1821 et mort à Magny (Yonne) le 8 octobre 1888, est un médecin, explorateur, botaniste, agronome et ethnolinguiste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1848, il combat l'insurrection des journées de Juin aux côtés de la garde nationale et quelques mois plus tard, défend sa thèse sur la fièvre typhoïde (dont il avait été atteint) : Du malaise, de l'oppression des forces, des perversions des sens, et du délire, dans les maladies fébriles aiguës. Il devient ainsi docteur de la Faculté de médecine de Paris. 
 Après s'être illustré dans la lutte contre l'épidémie de choléra de 1849 en tant que médecin de campagne dans l'Yonne, il s'engage comme chirurgien auxiliaire de la marine à la fin de 1853, et s'embarque pour la Guyane en février 1854. Après quelques mois de service auprès des transportés aux îles du Salut, il est nommé médecin et directeur de la léproserie de l'Acarouany dans le quartier de Mana. De 1854 à 1859, il consacre une grande partie de son temps à explorer et collecter des échantillons botaniques dans les environs des villages de l'Akarouany et de Mana, du bas Maroni (île Portal) et de la basse Mana, avec quelques autres collectes à Cayenne (Roura, Mahury). En 1859, il quitte la Guyane et continue à voyager : Antilles françaises, îles Canaries (Ténériffe). Il devient chirurgien de marine sur le paquebot transatlantique Tampico qui l'emmènera à New York et à Veracruz. 
@@ -520,7 +534,7 @@
 Ethnolinguiste, il est notamment coauteur avec Jules Crevaux et Lucien Adam de Grammaires et vocabulaires roucouyenne, arrouage, piapoco et d'autres langues de la région des Guyanes, publié en 1882. 
 Botaniste, il publie de 1880 à 1885 son Catalogue des plantes phanérogames et cryptogames vasculaires de la Guyane française dans les Annales des Sciences Naturelles. Il rédigera également une Flore de la Guyane non publiée à sa mort.
 Il était membre de l'Académie des Sciences, Arts et Belles Lettres de Dijon et membre correspondant de la Société académique de Nantes, de la Société académique d'Angers et de la Société botanique de Ratisbonne.
-Il meurt dans sa propriété de Magny, et sa veuve, Virginie de La Chevardière de La Grandville, lègue selon ses dernières volontés son herbier et son manuscrit sur les végétaux de Guyane au Muséum d'Histoire naturelle[1].
+Il meurt dans sa propriété de Magny, et sa veuve, Virginie de La Chevardière de La Grandville, lègue selon ses dernières volontés son herbier et son manuscrit sur les végétaux de Guyane au Muséum d'Histoire naturelle.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux taxons végétaux lui sont dédiés :
 Sagotia Baill. 1860 (Euphorbiaceae)
